--- a/resources/findings_about_projects.xlsx
+++ b/resources/findings_about_projects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erdem\Desktop\all-projects-ws\Capstone_Duayenler\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77CDA14-AE1B-44F2-A13A-10935AF70ACD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE6BA3-6739-474B-9497-08B853DBA02A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5064" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5070" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Note: We can use this file to further specify the projects.</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>http://www.societyofrobots.com/robotforum/index.php?topic=3144.0</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1877050915038375</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -286,19 +289,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8721B281-480C-407A-A513-3F829EB0EAB7}" name="Tablo2" displayName="Tablo2" ref="A1:C17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8721B281-480C-407A-A513-3F829EB0EAB7}" name="Tablo2" displayName="Tablo2" ref="A1:C17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C17" xr:uid="{0AA8E6E2-8CE5-4BA0-A76A-6013B8565C12}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{84776DF6-60C9-4B95-9519-7B4330CB5779}" name="Project Name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{2A2C5A8A-ACC1-4B60-BDE1-090F41E28EE7}" name="Link" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F7654F57-8F4B-4B88-B9B3-F0902258DE73}" name="Description" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{84776DF6-60C9-4B95-9519-7B4330CB5779}" name="Project Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2A2C5A8A-ACC1-4B60-BDE1-090F41E28EE7}" name="Link" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F7654F57-8F4B-4B88-B9B3-F0902258DE73}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -597,20 +600,20 @@
   <dimension ref="A1:AMK17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.33203125" style="1"/>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" style="1"/>
     <col min="6" max="6" width="63" style="1"/>
-    <col min="7" max="1025" width="11.33203125" style="1"/>
+    <col min="7" max="1025" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -621,7 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -632,7 +635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -643,7 +646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -657,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -669,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -678,7 +681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -687,7 +690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -696,7 +699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -705,7 +708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>22</v>
@@ -714,7 +717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>24</v>
@@ -723,32 +726,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="6"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="6"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="6"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="6"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="6"/>
       <c r="C17" s="2"/>
@@ -764,15 +769,16 @@
     <hyperlink ref="B9" r:id="rId7" xr:uid="{756C9BD3-91B1-4BFF-B144-4037BBB4E832}"/>
     <hyperlink ref="B10" r:id="rId8" xr:uid="{3FFDB30D-1167-461D-87EB-184A7607C45D}"/>
     <hyperlink ref="B11" r:id="rId9" xr:uid="{FFCD2DC0-B035-4013-A98C-705DA31EC2F0}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{9DC6624F-317A-453B-8F36-07D18A2B551E}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId11"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/findings_about_projects.xlsx
+++ b/resources/findings_about_projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE6BA3-6739-474B-9497-08B853DBA02A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78039F2-CF1A-40F0-917C-6B2CDB47B58A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5070" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Note: We can use this file to further specify the projects.</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S1877050915038375</t>
+  </si>
+  <si>
+    <t>http://openslam.org/</t>
+  </si>
+  <si>
+    <t>general approach to sensor slam</t>
+  </si>
+  <si>
+    <t>Slam area</t>
   </si>
 </sst>
 </file>
@@ -599,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -731,16 +740,22 @@
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -770,15 +785,16 @@
     <hyperlink ref="B10" r:id="rId8" xr:uid="{3FFDB30D-1167-461D-87EB-184A7607C45D}"/>
     <hyperlink ref="B11" r:id="rId9" xr:uid="{FFCD2DC0-B035-4013-A98C-705DA31EC2F0}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{9DC6624F-317A-453B-8F36-07D18A2B551E}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{FD67B271-4A82-4996-88EF-8D251D71EEEB}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId12"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/findings_about_projects.xlsx
+++ b/resources/findings_about_projects.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erdem\Desktop\all-projects-ws\Capstone_Duayenler\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27EE4F4-8F9D-40C7-B433-C03884D730A6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,93 +25,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
-  <si>
-    <t xml:space="preserve">Project Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapper Robot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.societyofrobots.com/robotforum/index.php?topic=5342.0 http://www.societyofrobots.com/robotforum/index.php?topic=3144.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An algorithm to discover a covered area (A*)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Mapper Robot</t>
+  </si>
+  <si>
+    <t>http://www.societyofrobots.com/robotforum/index.php?topic=5342.0 http://www.societyofrobots.com/robotforum/index.php?topic=3144.0</t>
+  </si>
+  <si>
+    <t>An algorithm to discover a covered area (A*)</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.societyofrobots.com/robotforum/index.php?topic=2671.0 </t>
   </si>
   <si>
-    <t xml:space="preserve">Generic search term for mapper robots SLAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.societyofrobots.com/robotforum/index.php?topic=13649.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wavefront mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: We can use this file to further specify the projects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.societyofrobots.com/robotforum/index.php?topic=2684.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entries here than later can be used for the standard committee.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.societyofrobots.com/robotforum/index.php?topic=1692.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2D MAPPING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.societyofrobots.com/robotforum/index.php?topic=14221.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLAM implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.societyofrobots.com/robotforum/index.php?topic=15436.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mapping algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.societyofrobots.com/robotforum/index.php?topic=3688.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A* algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.societyofrobots.com/robotforum/index.php?topic=5183.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scanning regions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.societyofrobots.com/robotforum/index.php?topic=3144.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sciencedirect.com/science/article/pii/S1877050915038375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">general approach to sensor slam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://openslam.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slam area</t>
+    <t>Generic search term for mapper robots SLAM</t>
+  </si>
+  <si>
+    <t>http://www.societyofrobots.com/robotforum/index.php?topic=13649.0</t>
+  </si>
+  <si>
+    <t>wavefront mapping</t>
+  </si>
+  <si>
+    <t>Note: We can use this file to further specify the projects.</t>
+  </si>
+  <si>
+    <t>http://www.societyofrobots.com/robotforum/index.php?topic=2684.0</t>
+  </si>
+  <si>
+    <t>SLAM</t>
+  </si>
+  <si>
+    <t>Entries here than later can be used for the standard committee.</t>
+  </si>
+  <si>
+    <t>http://www.societyofrobots.com/robotforum/index.php?topic=1692.0</t>
+  </si>
+  <si>
+    <t>2D MAPPING</t>
+  </si>
+  <si>
+    <t>http://www.societyofrobots.com/robotforum/index.php?topic=14221.0</t>
+  </si>
+  <si>
+    <t>SLAM implementation</t>
+  </si>
+  <si>
+    <t>http://www.societyofrobots.com/robotforum/index.php?topic=15436.0</t>
+  </si>
+  <si>
+    <t>mapping algorithm</t>
+  </si>
+  <si>
+    <t>http://www.societyofrobots.com/robotforum/index.php?topic=3688.0</t>
+  </si>
+  <si>
+    <t>A* algorithm</t>
+  </si>
+  <si>
+    <t>http://www.societyofrobots.com/robotforum/index.php?topic=5183.0</t>
+  </si>
+  <si>
+    <t>scanning regions</t>
+  </si>
+  <si>
+    <t>http://www.societyofrobots.com/robotforum/index.php?topic=3144.0</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1877050915038375</t>
+  </si>
+  <si>
+    <t>general approach to sensor slam</t>
+  </si>
+  <si>
+    <t>http://openslam.org/</t>
+  </si>
+  <si>
+    <t>Slam area</t>
   </si>
   <si>
     <r>
@@ -116,7 +121,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">https://www.raspberrypi.org/documentation/usage/camera/</t>
+      <t>https://www.raspberrypi.org/documentation/usage/camera/</t>
     </r>
     <r>
       <rPr>
@@ -128,7 +133,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">RPİ camera module explainer</t>
+    <t>RPİ camera module explainer</t>
   </si>
   <si>
     <r>
@@ -138,7 +143,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">https://projects.raspberrypi.org/en/projects/getting-started-with-picamera</t>
+      <t>https://projects.raspberrypi.org/en/projects/getting-started-with-picamera</t>
     </r>
     <r>
       <rPr>
@@ -150,7 +155,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Rpi and python to use onboard camera learning</t>
+    <t>Rpi and python to use onboard camera learning</t>
   </si>
   <si>
     <r>
@@ -160,7 +165,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">https://www.elprocus.com/rf-module-transmitter-receiver/</t>
+      <t>https://www.elprocus.com/rf-module-transmitter-receiver/</t>
     </r>
     <r>
       <rPr>
@@ -172,36 +177,27 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">RF transmitter-receiver document</t>
+    <t>RF transmitter-receiver document</t>
+  </si>
+  <si>
+    <t>https://www.servomagazine.com/magazine/article/tips_for_selecting_dc_motors_for_your_mobile_robot</t>
+  </si>
+  <si>
+    <t>A general concept to calculate required torque for the vehicle</t>
+  </si>
+  <si>
+    <t>For all Projects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -209,7 +205,7 @@
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
@@ -231,7 +227,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -239,77 +235,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -368,44 +323,353 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo2" displayName="Tablo2" ref="A1:C15" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Project Name"/>
-    <tableColumn id="2" name="Link"/>
-    <tableColumn id="3" name="Description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Project Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="56.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="62.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.0714285714286"/>
+    <col min="1" max="1" width="24.88671875" style="1"/>
+    <col min="2" max="2" width="56" style="1"/>
+    <col min="3" max="3" width="38.21875" style="1"/>
+    <col min="4" max="5" width="11.109375" style="1"/>
+    <col min="6" max="6" width="62.21875" style="1"/>
+    <col min="7" max="1025" width="11.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,9 +679,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -427,9 +691,9 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -439,9 +703,9 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -455,7 +719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -467,7 +731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -476,7 +740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
@@ -485,7 +749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
@@ -494,7 +758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>20</v>
@@ -503,7 +767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>22</v>
@@ -512,7 +776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>24</v>
@@ -521,7 +785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>25</v>
@@ -530,7 +794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>27</v>
@@ -539,7 +803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="6" t="s">
         <v>29</v>
@@ -548,7 +812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="6" t="s">
         <v>31</v>
@@ -557,7 +821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
@@ -565,31 +829,41 @@
         <v>34</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.societyofrobots.com/robotforum/index.php?topic=5342.0 http://www.societyofrobots.com/robotforum/index.php?topic=3144.0"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.societyofrobots.com/robotforum/index.php?topic=2671.0 "/>
-    <hyperlink ref="B5" r:id="rId3" display="http://www.societyofrobots.com/robotforum/index.php?topic=2684.0"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://www.societyofrobots.com/robotforum/index.php?topic=1692.0"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://www.societyofrobots.com/robotforum/index.php?topic=14221.0"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://www.societyofrobots.com/robotforum/index.php?topic=15436.0"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://www.societyofrobots.com/robotforum/index.php?topic=3688.0"/>
-    <hyperlink ref="B10" r:id="rId8" display="http://www.societyofrobots.com/robotforum/index.php?topic=5183.0"/>
-    <hyperlink ref="B11" r:id="rId9" display="http://www.societyofrobots.com/robotforum/index.php?topic=3144.0"/>
-    <hyperlink ref="B12" r:id="rId10" display="https://www.sciencedirect.com/science/article/pii/S1877050915038375"/>
-    <hyperlink ref="B13" r:id="rId11" display="http://openslam.org/"/>
-    <hyperlink ref="B14" r:id="rId12" display="https://www.raspberrypi.org/documentation/usage/camera/"/>
-    <hyperlink ref="B15" r:id="rId13" display="https://projects.raspberrypi.org/en/projects/getting-started-with-picamera"/>
-    <hyperlink ref="B16" r:id="rId14" display="https://www.elprocus.com/rf-module-transmitter-receiver/"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://www.raspberrypi.org/documentation/usage/camera/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId13" display="https://projects.raspberrypi.org/en/projects/getting-started-with-picamera" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId14" display="https://www.elprocus.com/rf-module-transmitter-receiver/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <tableParts>
+  <tableParts count="1">
     <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>

--- a/resources/findings_about_projects.xlsx
+++ b/resources/findings_about_projects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erdem\Desktop\all-projects-ws\Capstone_Duayenler\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27EE4F4-8F9D-40C7-B433-C03884D730A6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A1DA95-B427-4F1A-AB36-51CF0BAD76E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Project Name</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>For all Projects</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>Hokey</t>
   </si>
 </sst>
 </file>
@@ -260,7 +269,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,7 +366,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -656,20 +665,20 @@
   <dimension ref="A1:AMK18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="1"/>
+    <col min="1" max="1" width="24.85546875" style="1"/>
     <col min="2" max="2" width="56" style="1"/>
-    <col min="3" max="3" width="38.21875" style="1"/>
-    <col min="4" max="5" width="11.109375" style="1"/>
-    <col min="6" max="6" width="62.21875" style="1"/>
-    <col min="7" max="1025" width="11.109375" style="1"/>
+    <col min="3" max="3" width="38.28515625" style="1"/>
+    <col min="4" max="5" width="11.140625" style="1"/>
+    <col min="6" max="6" width="62.28515625" style="1"/>
+    <col min="7" max="1025" width="11.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +690,7 @@
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -693,7 +702,7 @@
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,7 +714,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -719,7 +728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -731,7 +740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -740,7 +749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
@@ -749,7 +758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
@@ -758,7 +767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>20</v>
@@ -767,8 +776,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
@@ -776,8 +787,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
@@ -785,8 +798,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
@@ -794,8 +809,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
@@ -803,8 +820,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
@@ -812,8 +831,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
@@ -821,7 +842,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
@@ -829,7 +853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>

--- a/resources/findings_about_projects.xlsx
+++ b/resources/findings_about_projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A1DA95-B427-4F1A-AB36-51CF0BAD76E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D9EF8A-94A3-49E0-8DB6-54853B7AEC22}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Project Name</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>Hokey</t>
+  </si>
+  <si>
+    <t>mapping</t>
+  </si>
+  <si>
+    <t>http://lawrencerobotics.blogspot.com/2014/02/arduino-matlab-slam.html</t>
+  </si>
+  <si>
+    <t>Ultrasonic mapping</t>
   </si>
 </sst>
 </file>
@@ -248,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -267,6 +276,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -662,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK18"/>
+  <dimension ref="A1:AMK19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -862,6 +872,17 @@
       </c>
       <c r="C18" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -880,6 +901,7 @@
     <hyperlink ref="B14" r:id="rId12" display="https://www.raspberrypi.org/documentation/usage/camera/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="B15" r:id="rId13" display="https://projects.raspberrypi.org/en/projects/getting-started-with-picamera" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="B16" r:id="rId14" display="https://www.elprocus.com/rf-module-transmitter-receiver/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{2D5FCA25-5309-46B7-BC0E-2C5C80DCB7A5}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -888,7 +910,7 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>